--- a/SourceCode/2024/May 2024/Bhavya/Task 18/Input.xlsx
+++ b/SourceCode/2024/May 2024/Bhavya/Task 18/Input.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -29,9 +29,6 @@
   </x:si>
   <x:si>
     <x:t>PInCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>text</x:t>
   </x:si>
   <x:si>
     <x:t>Bhavya</x:t>
@@ -388,13 +385,19 @@
       <x:c r="A2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>50601</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>50601</x:v>
